--- a/references/Release9_DataDic/STAI.xlsx
+++ b/references/Release9_DataDic/STAI.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data-1/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Release11_DataDic/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26409E1-A7FE-5548-AEB4-760C317CF1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="460" windowWidth="20020" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="5240" yWindow="500" windowWidth="20020" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="103">
   <si>
     <t>Question</t>
   </si>
@@ -272,9 +273,6 @@
     <t>34. I make decisions easily</t>
   </si>
   <si>
-    <t>35. I feel inadequare</t>
-  </si>
-  <si>
     <t>36. I am content</t>
   </si>
   <si>
@@ -333,12 +331,18 @@
   </si>
   <si>
     <t>Scores</t>
+  </si>
+  <si>
+    <t>4=Not at all, 3=Somewhat, 2=Moderately so, 1=Very much so</t>
+  </si>
+  <si>
+    <t>35. I feel inadequate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -533,6 +537,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -859,11 +866,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="26" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F48"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="101" zoomScaleNormal="26" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -910,10 +917,10 @@
         <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -927,10 +934,10 @@
         <v>46</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -944,10 +951,10 @@
         <v>46</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -961,10 +968,10 @@
         <v>46</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -978,10 +985,10 @@
         <v>46</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -995,10 +1002,10 @@
         <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1012,10 +1019,10 @@
         <v>46</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1029,10 +1036,10 @@
         <v>46</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1046,10 +1053,10 @@
         <v>46</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1063,10 +1070,10 @@
         <v>46</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1080,10 +1087,10 @@
         <v>46</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1097,10 +1104,10 @@
         <v>46</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1114,10 +1121,10 @@
         <v>46</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1131,10 +1138,10 @@
         <v>46</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1148,10 +1155,10 @@
         <v>46</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1165,10 +1172,10 @@
         <v>46</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1182,10 +1189,10 @@
         <v>46</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1199,10 +1206,10 @@
         <v>46</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1216,10 +1223,10 @@
         <v>46</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1233,10 +1240,10 @@
         <v>46</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1250,10 +1257,10 @@
         <v>46</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1267,10 +1274,10 @@
         <v>46</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1284,10 +1291,10 @@
         <v>46</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1301,10 +1308,10 @@
         <v>46</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1318,10 +1325,10 @@
         <v>46</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1335,10 +1342,10 @@
         <v>46</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1352,10 +1359,10 @@
         <v>46</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1369,10 +1376,10 @@
         <v>46</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1386,10 +1393,10 @@
         <v>46</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1403,10 +1410,10 @@
         <v>46</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1420,10 +1427,10 @@
         <v>46</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1437,10 +1444,10 @@
         <v>46</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1454,10 +1461,10 @@
         <v>46</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1471,15 +1478,15 @@
         <v>46</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -1488,15 +1495,15 @@
         <v>46</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
@@ -1505,15 +1512,15 @@
         <v>46</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
@@ -1522,15 +1529,15 @@
         <v>46</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
@@ -1539,15 +1546,15 @@
         <v>46</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -1556,15 +1563,15 @@
         <v>46</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>44</v>
@@ -1573,24 +1580,24 @@
         <v>46</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
@@ -1598,10 +1605,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
@@ -1609,10 +1616,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
         <v>46</v>
@@ -1620,10 +1627,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
         <v>46</v>
@@ -1631,10 +1638,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
         <v>46</v>
@@ -1642,10 +1649,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
         <v>46</v>
